--- a/va_facility_data_2025-02-20/Norman VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Norman%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Norman VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Norman%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R15113ec300a04c4f9774b72ac0b638e1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2fc99aa1c35046ee8866dcb41fd1aa20"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf0501d0a55c8492681acf0fc185ed1a1"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rdbcfbe4b04284d6fac5d3a623b5c6687"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R529ed9e4d1684490b198d987c25ff5ed"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb3c267f81ef7498184a40f16c0670d40"/>
   </x:sheets>
 </x:workbook>
 </file>
